--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.21340333333333</v>
+        <v>21.64449733333333</v>
       </c>
       <c r="H2">
-        <v>42.64021</v>
+        <v>64.933492</v>
       </c>
       <c r="I2">
-        <v>0.07497543485230342</v>
+        <v>0.1098676276771345</v>
       </c>
       <c r="J2">
-        <v>0.07497543485230343</v>
+        <v>0.1098676276771345</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N2">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q2">
-        <v>102.5370645966355</v>
+        <v>6.281002251495112</v>
       </c>
       <c r="R2">
-        <v>922.8335813697199</v>
+        <v>56.529020263456</v>
       </c>
       <c r="S2">
-        <v>0.03515466030495176</v>
+        <v>0.003767788973292899</v>
       </c>
       <c r="T2">
-        <v>0.03515466030495177</v>
+        <v>0.003767788973292899</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.21340333333333</v>
+        <v>21.64449733333333</v>
       </c>
       <c r="H3">
-        <v>42.64021</v>
+        <v>64.933492</v>
       </c>
       <c r="I3">
-        <v>0.07497543485230342</v>
+        <v>0.1098676276771345</v>
       </c>
       <c r="J3">
-        <v>0.07497543485230343</v>
+        <v>0.1098676276771345</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q3">
-        <v>101.0622818667689</v>
+        <v>153.8999660437316</v>
       </c>
       <c r="R3">
-        <v>909.5605368009199</v>
+        <v>1385.099694393584</v>
       </c>
       <c r="S3">
-        <v>0.03464903352407965</v>
+        <v>0.09232007438171105</v>
       </c>
       <c r="T3">
-        <v>0.03464903352407966</v>
+        <v>0.09232007438171107</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.21340333333333</v>
+        <v>21.64449733333333</v>
       </c>
       <c r="H4">
-        <v>42.64021</v>
+        <v>64.933492</v>
       </c>
       <c r="I4">
-        <v>0.07497543485230342</v>
+        <v>0.1098676276771345</v>
       </c>
       <c r="J4">
-        <v>0.07497543485230343</v>
+        <v>0.1098676276771345</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q4">
-        <v>15.08463284185444</v>
+        <v>22.97122565670978</v>
       </c>
       <c r="R4">
-        <v>135.76169557669</v>
+        <v>206.741030910388</v>
       </c>
       <c r="S4">
-        <v>0.005171741023272009</v>
+        <v>0.01377976432213056</v>
       </c>
       <c r="T4">
-        <v>0.00517174102327201</v>
+        <v>0.01377976432213056</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>29.428335</v>
       </c>
       <c r="H5">
-        <v>88.28500500000001</v>
+        <v>88.285005</v>
       </c>
       <c r="I5">
-        <v>0.1552339127976336</v>
+        <v>0.1493784449296822</v>
       </c>
       <c r="J5">
-        <v>0.1552339127976336</v>
+        <v>0.1493784449296822</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N5">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q5">
-        <v>212.29926542574</v>
+        <v>8.539788914760001</v>
       </c>
       <c r="R5">
-        <v>1910.69338883166</v>
+        <v>76.85810023284</v>
       </c>
       <c r="S5">
-        <v>0.0727864464268813</v>
+        <v>0.005122768822383808</v>
       </c>
       <c r="T5">
-        <v>0.07278644642688131</v>
+        <v>0.005122768822383809</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>29.428335</v>
       </c>
       <c r="H6">
-        <v>88.28500500000001</v>
+        <v>88.285005</v>
       </c>
       <c r="I6">
-        <v>0.1552339127976336</v>
+        <v>0.1493784449296822</v>
       </c>
       <c r="J6">
-        <v>0.1552339127976336</v>
+        <v>0.1493784449296822</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q6">
         <v>209.24578138614</v>
@@ -818,10 +818,10 @@
         <v>1883.21203247526</v>
       </c>
       <c r="S6">
-        <v>0.07173956455464316</v>
+        <v>0.1255204052230817</v>
       </c>
       <c r="T6">
-        <v>0.07173956455464317</v>
+        <v>0.1255204052230817</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>29.428335</v>
       </c>
       <c r="H7">
-        <v>88.28500500000001</v>
+        <v>88.285005</v>
       </c>
       <c r="I7">
-        <v>0.1552339127976336</v>
+        <v>0.1493784449296822</v>
       </c>
       <c r="J7">
-        <v>0.1552339127976336</v>
+        <v>0.1493784449296822</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q7">
         <v>31.232184031605</v>
@@ -880,10 +880,10 @@
         <v>281.089656284445</v>
       </c>
       <c r="S7">
-        <v>0.01070790181610913</v>
+        <v>0.0187352708842167</v>
       </c>
       <c r="T7">
-        <v>0.01070790181610913</v>
+        <v>0.0187352708842167</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>437.797195</v>
       </c>
       <c r="I8">
-        <v>0.7697906523500631</v>
+        <v>0.7407539273931834</v>
       </c>
       <c r="J8">
-        <v>0.7697906523500631</v>
+        <v>0.7407539273931834</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N8">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q8">
-        <v>1052.772471428749</v>
+        <v>42.34802538408445</v>
       </c>
       <c r="R8">
-        <v>9474.952242858739</v>
+        <v>381.13222845676</v>
       </c>
       <c r="S8">
-        <v>0.3609412728662858</v>
+        <v>0.02540333798557393</v>
       </c>
       <c r="T8">
-        <v>0.3609412728662858</v>
+        <v>0.02540333798557393</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>437.797195</v>
       </c>
       <c r="I9">
-        <v>0.7697906523500631</v>
+        <v>0.7407539273931834</v>
       </c>
       <c r="J9">
-        <v>0.7697906523500631</v>
+        <v>0.7407539273931834</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q9">
         <v>1037.630525777682</v>
@@ -1004,10 +1004,10 @@
         <v>9338.674731999139</v>
       </c>
       <c r="S9">
-        <v>0.3557498822426775</v>
+        <v>0.6224441095283226</v>
       </c>
       <c r="T9">
-        <v>0.3557498822426775</v>
+        <v>0.6224441095283226</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>437.797195</v>
       </c>
       <c r="I10">
-        <v>0.7697906523500631</v>
+        <v>0.7407539273931834</v>
       </c>
       <c r="J10">
-        <v>0.7697906523500631</v>
+        <v>0.7407539273931834</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q10">
         <v>154.8775192657061</v>
@@ -1066,10 +1066,10 @@
         <v>1393.897673391355</v>
       </c>
       <c r="S10">
-        <v>0.05309949724109979</v>
+        <v>0.09290647987928687</v>
       </c>
       <c r="T10">
-        <v>0.05309949724109979</v>
+        <v>0.09290647987928685</v>
       </c>
     </row>
   </sheetData>
